--- a/Result/LSTM Multi/Service/CHN.xlsx
+++ b/Result/LSTM Multi/Service/CHN.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,106 +396,298 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2004</v>
+        <v>1980</v>
       </c>
       <c r="B2">
-        <v>31.97506997026333</v>
+        <v>22.30837564817022</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2005</v>
+        <v>1981</v>
       </c>
       <c r="B3">
-        <v>32.09392432867769</v>
+        <v>22.71406745641086</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="B4">
-        <v>32.45232805659434</v>
+        <v>22.59369102710226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2007</v>
+        <v>1983</v>
       </c>
       <c r="B5">
-        <v>32.38335311644068</v>
+        <v>23.2032539894927</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2008</v>
+        <v>1984</v>
       </c>
       <c r="B6">
-        <v>32.11941160334752</v>
+        <v>25.52931556625333</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>2009</v>
+        <v>1985</v>
       </c>
       <c r="B7">
-        <v>31.59623809103104</v>
+        <v>29.35332018542419</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>2010</v>
+        <v>1986</v>
       </c>
       <c r="B8">
-        <v>31.61282168200608</v>
+        <v>29.84707434646617</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>2011</v>
+        <v>1987</v>
       </c>
       <c r="B9">
-        <v>32.06479118642368</v>
+        <v>30.36075740362833</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>2012</v>
+        <v>1988</v>
       </c>
       <c r="B10">
-        <v>31.52857786597396</v>
+        <v>31.23777118769934</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>2013</v>
+        <v>1989</v>
       </c>
       <c r="B11">
-        <v>30.67100807217443</v>
+        <v>32.8924312398331</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>2014</v>
+        <v>1990</v>
       </c>
       <c r="B12">
-        <v>30.39644420551544</v>
+        <v>32.38277311021145</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>2015</v>
+        <v>1991</v>
       </c>
       <c r="B13">
-        <v>28.95167057872186</v>
+        <v>34.478536877422</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
+        <v>1992</v>
+      </c>
+      <c r="B14">
+        <v>35.55580571533227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1993</v>
+      </c>
+      <c r="B15">
+        <v>34.51599613052345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1994</v>
+      </c>
+      <c r="B16">
+        <v>34.36265612039433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1995</v>
+      </c>
+      <c r="B17">
+        <v>33.65293801156184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1996</v>
+      </c>
+      <c r="B18">
+        <v>33.57027126834449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1997</v>
+      </c>
+      <c r="B19">
+        <v>35.00567727061917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1998</v>
+      </c>
+      <c r="B20">
+        <v>37.04332902280985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1999</v>
+      </c>
+      <c r="B21">
+        <v>38.57534808943312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>39.78765516702887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23">
+        <v>41.22312630868009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>2002</v>
+      </c>
+      <c r="B24">
+        <v>42.24794475438896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>2003</v>
+      </c>
+      <c r="B25">
+        <v>42.0282161856089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26">
+        <v>41.18314016648829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>2005</v>
+      </c>
+      <c r="B27">
+        <v>41.33592591678994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>2006</v>
+      </c>
+      <c r="B28">
+        <v>41.81684190683736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>2007</v>
+      </c>
+      <c r="B29">
+        <v>42.86966500939599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>2008</v>
+      </c>
+      <c r="B30">
+        <v>42.85977979077759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>2009</v>
+      </c>
+      <c r="B31">
+        <v>44.40666719932563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32">
+        <v>44.17699192151338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>2011</v>
+      </c>
+      <c r="B33">
+        <v>44.29305673463117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34">
+        <v>45.46330538759899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35">
+        <v>46.88040150152828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36">
+        <v>48.27094049434601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37">
+        <v>50.77164514848277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
         <v>2016</v>
       </c>
-      <c r="B14">
-        <v>28.06944223771233</v>
+      <c r="B38">
+        <v>52.3620909629531</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +716,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>31.18004989624023</v>
+        <v>46.78036499023438</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -532,7 +724,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>31.25432968139648</v>
+        <v>46.34017944335938</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -540,7 +732,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>31.09625625610352</v>
+        <v>46.19839859008789</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +740,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>30.78204154968262</v>
+        <v>45.45465087890625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -556,7 +748,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>30.53756141662598</v>
+        <v>44.94773864746094</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +758,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,146 +774,338 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2004</v>
+        <v>1980</v>
       </c>
       <c r="B2">
-        <v>31.97506997026333</v>
+        <v>22.30837564817022</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2005</v>
+        <v>1981</v>
       </c>
       <c r="B3">
-        <v>32.09392432867769</v>
+        <v>22.71406745641086</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="B4">
-        <v>32.45232805659434</v>
+        <v>22.59369102710226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2007</v>
+        <v>1983</v>
       </c>
       <c r="B5">
-        <v>32.38335311644068</v>
+        <v>23.2032539894927</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2008</v>
+        <v>1984</v>
       </c>
       <c r="B6">
-        <v>32.11941160334752</v>
+        <v>25.52931556625333</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>2009</v>
+        <v>1985</v>
       </c>
       <c r="B7">
-        <v>31.59623809103104</v>
+        <v>29.35332018542419</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>2010</v>
+        <v>1986</v>
       </c>
       <c r="B8">
-        <v>31.61282168200608</v>
+        <v>29.84707434646617</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>2011</v>
+        <v>1987</v>
       </c>
       <c r="B9">
-        <v>32.06479118642368</v>
+        <v>30.36075740362833</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>2012</v>
+        <v>1988</v>
       </c>
       <c r="B10">
-        <v>31.52857786597396</v>
+        <v>31.23777118769934</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>2013</v>
+        <v>1989</v>
       </c>
       <c r="B11">
-        <v>30.67100807217443</v>
+        <v>32.8924312398331</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>2014</v>
+        <v>1990</v>
       </c>
       <c r="B12">
-        <v>30.39644420551544</v>
+        <v>32.38277311021145</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>2015</v>
+        <v>1991</v>
       </c>
       <c r="B13">
-        <v>28.95167057872186</v>
+        <v>34.478536877422</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>2016</v>
+        <v>1992</v>
       </c>
       <c r="B14">
-        <v>28.06944223771233</v>
+        <v>35.55580571533227</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>2017</v>
+        <v>1993</v>
       </c>
       <c r="B15">
-        <v>28.10893687151002</v>
+        <v>34.51599613052345</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="B16">
-        <v>27.84101115441765</v>
+        <v>34.36265612039433</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>2019</v>
+        <v>1995</v>
       </c>
       <c r="B17">
-        <v>26.77472170589195</v>
+        <v>33.65293801156184</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>2020</v>
+        <v>1996</v>
       </c>
       <c r="B18">
-        <v>26.28518884296746</v>
+        <v>33.57027126834449</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
+        <v>1997</v>
+      </c>
+      <c r="B19">
+        <v>35.00567727061917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1998</v>
+      </c>
+      <c r="B20">
+        <v>37.04332902280985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1999</v>
+      </c>
+      <c r="B21">
+        <v>38.57534808943312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>39.78765516702887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23">
+        <v>41.22312630868009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>2002</v>
+      </c>
+      <c r="B24">
+        <v>42.24794475438896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>2003</v>
+      </c>
+      <c r="B25">
+        <v>42.0282161856089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26">
+        <v>41.18314016648829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>2005</v>
+      </c>
+      <c r="B27">
+        <v>41.33592591678994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>2006</v>
+      </c>
+      <c r="B28">
+        <v>41.81684190683736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>2007</v>
+      </c>
+      <c r="B29">
+        <v>42.86966500939599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>2008</v>
+      </c>
+      <c r="B30">
+        <v>42.85977979077759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>2009</v>
+      </c>
+      <c r="B31">
+        <v>44.40666719932563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32">
+        <v>44.17699192151338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>2011</v>
+      </c>
+      <c r="B33">
+        <v>44.29305673463117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34">
+        <v>45.46330538759899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35">
+        <v>46.88040150152828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36">
+        <v>48.27094049434601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37">
+        <v>50.77164514848277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>2016</v>
+      </c>
+      <c r="B38">
+        <v>52.3620909629531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>2017</v>
+      </c>
+      <c r="B39">
+        <v>52.68473653423992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40">
+        <v>53.26996792341521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41">
+        <v>54.26890426636677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>2020</v>
+      </c>
+      <c r="B42">
+        <v>54.45856070688963</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
         <v>2021</v>
       </c>
-      <c r="B19">
-        <v>27.43772961721378</v>
+      <c r="B43">
+        <v>53.30909789775842</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +1134,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>30.85776901245117</v>
+        <v>48.08352279663086</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -758,7 +1142,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>30.89321327209473</v>
+        <v>47.0480842590332</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -766,7 +1150,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>31.00146484375</v>
+        <v>48.40864944458008</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -774,7 +1158,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>31.26606941223145</v>
+        <v>47.82494354248047</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -782,7 +1166,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>31.68523025512695</v>
+        <v>46.88985061645508</v>
       </c>
     </row>
   </sheetData>
